--- a/Business Game/Reporte sobre racionais das decisões do TOPSIM - Sergio_Processos_B.xlsx
+++ b/Business Game/Reporte sobre racionais das decisões do TOPSIM - Sergio_Processos_B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="210" windowWidth="18720" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="210" windowWidth="15000" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Rodadas" sheetId="8" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Processos por Area'!$A$2:$C$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rodadas!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rodadas!$A$1:$K$48</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="332">
   <si>
     <t>6.6 Controlar o cronograma</t>
   </si>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>BF</t>
-  </si>
-  <si>
-    <t>YS</t>
   </si>
   <si>
     <t>FC</t>
@@ -683,32 +680,6 @@
     <t>Prototype</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Após a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release week</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, equipe recebeu elogios por ter optado pela alternativa 1, onde a contratação de programadores com mais experiência trouxe boas experiências.</t>
-    </r>
-  </si>
-  <si>
     <t>Mesmo após a escolha da alternativa 3 que trazia ganhos de tecnologia e utilizava parte da folga do caminho, houve um evento de distúrbio.
 A equipe optou pela alternativa 2, consultar especilistas, que mostrava um equilibrio entre aumento de prazo e custo, e com ponto de tecnologia.</t>
   </si>
@@ -873,10 +844,6 @@
     <t>A equipe entendeu que seria mais vantajoso para o cliente antecipar o término do projeto em uma semana do que utilizar esse período com a celebração de término do projeto.</t>
   </si>
   <si>
-    <t>Um evento de distúrbio foi gerado devido a um incêndio na empresa contratada para esse pacote de trablaho.
-A equipe optou pela alternativa 1 considerando o custo mais alto como investimento em qualidade e tecnologia.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Após a </t>
     </r>
@@ -1325,6 +1292,40 @@
   </si>
   <si>
     <t>Esta atividade apresenta um risco eminente, que requer a implementação de ação para mitigação dos riscos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Após a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release week</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, equipe recebeu elogios por ter optado pela alternativa 1, onde a contratação de programadores com mais experiência trouxe bons resultados.</t>
+    </r>
+  </si>
+  <si>
+    <t>Um evento de distúrbio foi gerado devido a um incêndio na empresa contratada para esse pacote de trabalho.
+A equipe optou pela alternativa 1 considerando o custo mais alto como investimento em qualidade e tecnologia.</t>
+  </si>
+  <si>
+    <t>5. Escopo
+8. Qualidade</t>
   </si>
 </sst>
 </file>
@@ -2485,11 +2486,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,25 +2534,25 @@
         <v>120</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>121</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>122</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2573,25 +2575,25 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L2" s="28">
         <v>2</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2616,23 +2618,23 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L3" s="28"/>
       <c r="M3" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="29" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -2655,21 +2657,21 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2694,28 +2696,28 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L5" s="28"/>
       <c r="M5" s="26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="113.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -2735,30 +2737,30 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>263</v>
-      </c>
       <c r="K6" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L6" s="28">
         <v>1</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -2778,25 +2780,25 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L7" s="28">
         <v>1</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="29" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>2</v>
       </c>
@@ -2819,21 +2821,21 @@
         <v>0</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="29" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>2</v>
       </c>
@@ -2856,21 +2858,21 @@
         <v>0</v>
       </c>
       <c r="H9" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>270</v>
-      </c>
       <c r="K9" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
     </row>
-    <row r="10" spans="1:13" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="29" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>2</v>
       </c>
@@ -2893,21 +2895,21 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
     </row>
-    <row r="11" spans="1:13" s="29" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="29" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>2</v>
       </c>
@@ -2930,25 +2932,25 @@
         <v>0</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L11" s="28">
         <v>2</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -2973,25 +2975,25 @@
         <v>0</v>
       </c>
       <c r="H12" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="J12" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>270</v>
-      </c>
       <c r="K12" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L12" s="28">
         <v>0</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="29" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="29" customFormat="1" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>2</v>
       </c>
@@ -3014,21 +3016,21 @@
         <v>0</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
     </row>
-    <row r="14" spans="1:13" s="29" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="29" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>2</v>
       </c>
@@ -3052,26 +3054,26 @@
         <v>0</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
     </row>
-    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -3091,23 +3093,23 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>282</v>
-      </c>
       <c r="K15" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -3132,30 +3134,30 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L16" s="28">
         <v>1</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -3175,21 +3177,21 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
     </row>
-    <row r="18" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -3214,25 +3216,25 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L18" s="28">
         <v>1</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -3257,30 +3259,30 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L19" s="28">
         <v>2</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -3300,26 +3302,26 @@
         <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2">
         <v>15</v>
@@ -3339,33 +3341,33 @@
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L21" s="28">
         <v>2</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
         <v>21</v>
@@ -3382,33 +3384,33 @@
         <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L22" s="5">
         <v>1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
@@ -3425,29 +3427,31 @@
         <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
-        <v>3</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25">
-        <v>15</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="29" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20</v>
       </c>
       <c r="D24" s="25">
         <v>23</v>
@@ -3464,31 +3468,31 @@
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L24" s="28"/>
       <c r="M24" s="26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2">
         <v>24</v>
@@ -3505,31 +3509,29 @@
         <v>0</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L25" s="5">
         <v>2</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>5</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2">
         <v>40</v>
       </c>
@@ -3548,27 +3550,29 @@
         <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:14" s="29" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
-        <v>3</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25">
-        <v>15</v>
+    <row r="27" spans="1:14" s="29" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20</v>
       </c>
       <c r="D27" s="25">
         <v>26</v>
@@ -3585,33 +3589,33 @@
         <v>1</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L27" s="28">
         <v>2</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C28" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2">
         <v>27</v>
@@ -3628,29 +3632,29 @@
         <v>3</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C29" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2">
         <v>28</v>
@@ -3667,34 +3671,34 @@
         <v>2</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L29" s="5">
         <v>2</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C30" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2">
         <v>29</v>
@@ -3711,30 +3715,30 @@
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2">
         <v>30</v>
@@ -3751,25 +3755,27 @@
         <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C32" s="2">
         <v>20</v>
       </c>
@@ -3788,31 +3794,33 @@
         <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L32" s="5">
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>5</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C33" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2">
         <v>32</v>
@@ -3829,16 +3837,16 @@
         <v>1</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -3866,22 +3874,22 @@
         <v>0</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L34" s="5">
         <v>2</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -3907,22 +3915,22 @@
         <v>3</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L35" s="5">
         <v>1</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3948,22 +3956,22 @@
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L36" s="5">
         <v>1</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>230</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3989,20 +3997,20 @@
         <v>3</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -4028,20 +4036,20 @@
         <v>3</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -4070,13 +4078,13 @@
       <c r="I39" s="3"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L39" s="5">
         <v>1</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -4102,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -4139,20 +4147,20 @@
         <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -4178,16 +4186,16 @@
         <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -4218,13 +4226,13 @@
       <c r="I43" s="3"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L43" s="5">
         <v>1</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -4253,7 +4261,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -4284,13 +4292,13 @@
       <c r="I45" s="21"/>
       <c r="J45" s="32"/>
       <c r="K45" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L45" s="5">
         <v>1</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -4319,7 +4327,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="32"/>
       <c r="K46" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -4350,18 +4358,24 @@
       <c r="I47" s="21"/>
       <c r="J47" s="32"/>
       <c r="K47" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="K48" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K2"/>
+  <autoFilter ref="A1:K48">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4396,24 +4410,24 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4422,7 +4436,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4431,7 +4445,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4440,36 +4454,36 @@
         <v>26</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4478,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4487,7 +4501,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,7 +4510,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4505,18 +4519,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4525,7 +4539,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4534,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4543,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4552,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4561,18 +4575,18 @@
         <v>0</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4581,7 +4595,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4590,18 +4604,18 @@
         <v>28</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4610,27 +4624,27 @@
         <v>22</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,7 +4653,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4648,7 +4662,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4657,18 +4671,18 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4677,45 +4691,45 @@
         <v>4</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="B34" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4724,7 +4738,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4733,7 +4747,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4742,7 +4756,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4751,7 +4765,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -4760,27 +4774,27 @@
         <v>21</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -4789,7 +4803,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4798,7 +4812,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4855,7 +4869,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -4866,7 +4880,7 @@
         <v>110</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -4877,7 +4891,7 @@
         <v>109</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4888,7 +4902,7 @@
         <v>108</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4899,7 +4913,7 @@
         <v>107</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4954,7 +4968,7 @@
         <v>98</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4987,7 +5001,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4998,7 +5012,7 @@
         <v>92</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -5009,7 +5023,7 @@
         <v>91</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -5020,7 +5034,7 @@
         <v>90</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -5028,10 +5042,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -5042,7 +5056,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -5053,7 +5067,7 @@
         <v>88</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5064,7 +5078,7 @@
         <v>87</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -5075,7 +5089,7 @@
         <v>86</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5097,7 +5111,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5108,7 +5122,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -5130,7 +5144,7 @@
         <v>79</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -5141,7 +5155,7 @@
         <v>78</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -5152,7 +5166,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5163,7 +5177,7 @@
         <v>76</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -5284,7 +5298,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -5317,7 +5331,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
